--- a/predictions/Прогнозы_ETS_EA12dt.xlsx
+++ b/predictions/Прогнозы_ETS_EA12dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16094011.06081494</v>
+        <v>19340053.8085478</v>
       </c>
       <c r="C2" t="n">
-        <v>19552977.62155924</v>
+        <v>19483232.74950074</v>
       </c>
       <c r="D2" t="n">
-        <v>19745667.34908297</v>
+        <v>18114708.79952401</v>
       </c>
       <c r="E2" t="n">
-        <v>18208850.33494821</v>
+        <v>16700755.36142296</v>
       </c>
       <c r="F2" t="n">
-        <v>16490259.26358039</v>
+        <v>18562234.27347268</v>
       </c>
       <c r="G2" t="n">
-        <v>17683950.53738918</v>
+        <v>18296929.80856964</v>
       </c>
       <c r="H2" t="n">
-        <v>17358081.43895219</v>
+        <v>19640777.55239114</v>
       </c>
       <c r="I2" t="n">
-        <v>18725453.55229337</v>
+        <v>18486738.20659456</v>
       </c>
       <c r="J2" t="n">
-        <v>17741796.74706689</v>
+        <v>19419135.19870314</v>
       </c>
       <c r="K2" t="n">
-        <v>18480370.31725708</v>
+        <v>19025567.61158066</v>
       </c>
       <c r="L2" t="n">
-        <v>17969209.87455615</v>
+        <v>19793821.83506803</v>
       </c>
       <c r="M2" t="n">
-        <v>18328281.73347251</v>
+        <v>15546027.45242347</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15269576.6877004</v>
+        <v>10442062.01459813</v>
       </c>
       <c r="C3" t="n">
-        <v>16070346.99486453</v>
+        <v>18109725.91301848</v>
       </c>
       <c r="D3" t="n">
-        <v>16933103.32585102</v>
+        <v>9490863.851105571</v>
       </c>
       <c r="E3" t="n">
-        <v>17609651.64781294</v>
+        <v>12259909.28881303</v>
       </c>
       <c r="F3" t="n">
-        <v>18390652.48672706</v>
+        <v>8664862.873636326</v>
       </c>
       <c r="G3" t="n">
-        <v>19087367.89796015</v>
+        <v>7283646.747638114</v>
       </c>
       <c r="H3" t="n">
-        <v>19791420.82544108</v>
+        <v>10595699.89624148</v>
       </c>
       <c r="I3" t="n">
-        <v>20527006.41961068</v>
+        <v>13801705.38175523</v>
       </c>
       <c r="J3" t="n">
-        <v>21254085.48083482</v>
+        <v>12589298.01171017</v>
       </c>
       <c r="K3" t="n">
-        <v>21917132.33867077</v>
+        <v>15694094.04619158</v>
       </c>
       <c r="L3" t="n">
-        <v>22606171.68955443</v>
+        <v>11758268.08559051</v>
       </c>
       <c r="M3" t="n">
-        <v>23229871.24172137</v>
+        <v>8038066.031843352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25965206.0336217</v>
+        <v>61714007.17552763</v>
       </c>
       <c r="C4" t="n">
-        <v>28240788.04912207</v>
+        <v>70385124.87095076</v>
       </c>
       <c r="D4" t="n">
-        <v>30269315.84212331</v>
+        <v>78883265.84471092</v>
       </c>
       <c r="E4" t="n">
-        <v>32078104.59330758</v>
+        <v>87211032.54259932</v>
       </c>
       <c r="F4" t="n">
-        <v>33690254.45253509</v>
+        <v>95372525.79421361</v>
       </c>
       <c r="G4" t="n">
-        <v>35127616.01535945</v>
+        <v>103370472.900602</v>
       </c>
       <c r="H4" t="n">
-        <v>36408851.26479647</v>
+        <v>111208810.7226494</v>
       </c>
       <c r="I4" t="n">
-        <v>37551150.43862073</v>
+        <v>118889866.6750102</v>
       </c>
       <c r="J4" t="n">
-        <v>38568903.90493038</v>
+        <v>126417854.4102406</v>
       </c>
       <c r="K4" t="n">
-        <v>39477624.90358444</v>
+        <v>133793350.7154152</v>
       </c>
       <c r="L4" t="n">
-        <v>40285604.42366452</v>
+        <v>141024546.2596397</v>
       </c>
       <c r="M4" t="n">
-        <v>41007627.70030881</v>
+        <v>148109697.7414393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21082237.44119392</v>
+        <v>28348440.64052709</v>
       </c>
       <c r="C5" t="n">
-        <v>23819179.58219166</v>
+        <v>28122785.3784382</v>
       </c>
       <c r="D5" t="n">
-        <v>26501334.86937241</v>
+        <v>31271992.70325306</v>
       </c>
       <c r="E5" t="n">
-        <v>29130212.12201623</v>
+        <v>36833200.0059438</v>
       </c>
       <c r="F5" t="n">
-        <v>31709177.84851993</v>
+        <v>34599010.68738039</v>
       </c>
       <c r="G5" t="n">
-        <v>34238635.89437822</v>
+        <v>36563861.6217084</v>
       </c>
       <c r="H5" t="n">
-        <v>36710418.84727955</v>
+        <v>36921925.6501731</v>
       </c>
       <c r="I5" t="n">
-        <v>39142634.47169065</v>
+        <v>35915710.42332537</v>
       </c>
       <c r="J5" t="n">
-        <v>41532707.3600843</v>
+        <v>38386510.56609587</v>
       </c>
       <c r="K5" t="n">
-        <v>43822368.01502468</v>
+        <v>42364561.31649023</v>
       </c>
       <c r="L5" t="n">
-        <v>46093475.5479451</v>
+        <v>63144520.50620693</v>
       </c>
       <c r="M5" t="n">
-        <v>48364762.6723419</v>
+        <v>17689835.87030838</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7971094.999179007</v>
+        <v>2056111.472949837</v>
       </c>
       <c r="C6" t="n">
-        <v>12895998.63134243</v>
+        <v>2377592.27221395</v>
       </c>
       <c r="D6" t="n">
-        <v>10810901.33649413</v>
+        <v>1012756.452467655</v>
       </c>
       <c r="E6" t="n">
-        <v>11289122.55533283</v>
+        <v>3756759.205053182</v>
       </c>
       <c r="F6" t="n">
-        <v>13686539.28328728</v>
+        <v>6370.970792688429</v>
       </c>
       <c r="G6" t="n">
-        <v>12992685.57927661</v>
+        <v>1122635.913740111</v>
       </c>
       <c r="H6" t="n">
-        <v>13113512.38979477</v>
+        <v>634635.7413361686</v>
       </c>
       <c r="I6" t="n">
-        <v>13651849.31287454</v>
+        <v>1304203.427493436</v>
       </c>
       <c r="J6" t="n">
-        <v>13446947.20896164</v>
+        <v>346251.7031375321</v>
       </c>
       <c r="K6" t="n">
-        <v>13591643.0966408</v>
+        <v>1658866.829628828</v>
       </c>
       <c r="L6" t="n">
-        <v>14888570.62654788</v>
+        <v>1001154.881272625</v>
       </c>
       <c r="M6" t="n">
-        <v>22459300.24646725</v>
+        <v>826160.1289807698</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1095305.236850835</v>
+        <v>13318218.02051152</v>
       </c>
       <c r="C7" t="n">
-        <v>2853640.879042784</v>
+        <v>13453136.48633976</v>
       </c>
       <c r="D7" t="n">
-        <v>2805126.832725569</v>
+        <v>12968914.37613536</v>
       </c>
       <c r="E7" t="n">
-        <v>3118335.094585767</v>
+        <v>13291763.74314179</v>
       </c>
       <c r="F7" t="n">
-        <v>1948367.820329553</v>
+        <v>12872720.56157437</v>
       </c>
       <c r="G7" t="n">
-        <v>3389097.158533417</v>
+        <v>13192616.85513356</v>
       </c>
       <c r="H7" t="n">
-        <v>2673839.63691096</v>
+        <v>13246098.93673886</v>
       </c>
       <c r="I7" t="n">
-        <v>2305252.286205056</v>
+        <v>13269054.70711574</v>
       </c>
       <c r="J7" t="n">
-        <v>2798017.923919043</v>
+        <v>13580277.76633519</v>
       </c>
       <c r="K7" t="n">
-        <v>2652177.61270972</v>
+        <v>13253841.41539956</v>
       </c>
       <c r="L7" t="n">
-        <v>2677429.486622634</v>
+        <v>14081618.8893166</v>
       </c>
       <c r="M7" t="n">
-        <v>4036435.145763956</v>
+        <v>13680414.69560149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>951133.8008736259</v>
+        <v>17784114.48144739</v>
       </c>
       <c r="C8" t="n">
-        <v>1333077.551585247</v>
+        <v>18978128.20686754</v>
       </c>
       <c r="D8" t="n">
-        <v>1578157.397351209</v>
+        <v>18891624.79821244</v>
       </c>
       <c r="E8" t="n">
-        <v>1390411.126381777</v>
+        <v>17819024.43595137</v>
       </c>
       <c r="F8" t="n">
-        <v>1456595.187218892</v>
+        <v>18350228.36729036</v>
       </c>
       <c r="G8" t="n">
-        <v>1353422.989981408</v>
+        <v>17706168.47557027</v>
       </c>
       <c r="H8" t="n">
-        <v>1773767.623126458</v>
+        <v>16543637.94142164</v>
       </c>
       <c r="I8" t="n">
-        <v>1732583.658648405</v>
+        <v>17441651.26011224</v>
       </c>
       <c r="J8" t="n">
-        <v>1878647.059680731</v>
+        <v>18119625.27536906</v>
       </c>
       <c r="K8" t="n">
-        <v>2058228.445182895</v>
+        <v>20398787.41354097</v>
       </c>
       <c r="L8" t="n">
-        <v>2475288.624063428</v>
+        <v>23169037.51553066</v>
       </c>
       <c r="M8" t="n">
-        <v>1953598.685483469</v>
+        <v>13621540.12979917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11762909.24727206</v>
+        <v>25909218.11488606</v>
       </c>
       <c r="C9" t="n">
-        <v>14280042.65291383</v>
+        <v>29721877.2549391</v>
       </c>
       <c r="D9" t="n">
-        <v>16579810.62805273</v>
+        <v>29195751.63127363</v>
       </c>
       <c r="E9" t="n">
-        <v>18679164.25820643</v>
+        <v>31054592.97677275</v>
       </c>
       <c r="F9" t="n">
-        <v>20607500.34714814</v>
+        <v>33623896.60010371</v>
       </c>
       <c r="G9" t="n">
-        <v>22356441.85424117</v>
+        <v>31950468.94557918</v>
       </c>
       <c r="H9" t="n">
-        <v>23978876.57419828</v>
+        <v>33356854.49655956</v>
       </c>
       <c r="I9" t="n">
-        <v>25452463.92511708</v>
+        <v>28316442.57456258</v>
       </c>
       <c r="J9" t="n">
-        <v>26800254.93562222</v>
+        <v>33896487.91038544</v>
       </c>
       <c r="K9" t="n">
-        <v>28050130.37015175</v>
+        <v>32602416.36474003</v>
       </c>
       <c r="L9" t="n">
-        <v>29164280.96008903</v>
+        <v>36667533.7983316</v>
       </c>
       <c r="M9" t="n">
-        <v>30207037.71206323</v>
+        <v>26643222.39117545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3253908.308733938</v>
+        <v>15147080.44404464</v>
       </c>
       <c r="C10" t="n">
-        <v>5592522.503409935</v>
+        <v>15151935.39498049</v>
       </c>
       <c r="D10" t="n">
-        <v>7037862.76393217</v>
+        <v>15156388.78719823</v>
       </c>
       <c r="E10" t="n">
-        <v>8056501.143873695</v>
+        <v>15160514.55484005</v>
       </c>
       <c r="F10" t="n">
-        <v>7760487.720808313</v>
+        <v>15164421.99016204</v>
       </c>
       <c r="G10" t="n">
-        <v>7242230.883043134</v>
+        <v>15169477.69340397</v>
       </c>
       <c r="H10" t="n">
-        <v>7696400.161887518</v>
+        <v>15172214.08679271</v>
       </c>
       <c r="I10" t="n">
-        <v>8559838.327970184</v>
+        <v>15175966.03591989</v>
       </c>
       <c r="J10" t="n">
-        <v>9037809.972293692</v>
+        <v>15180441.003168</v>
       </c>
       <c r="K10" t="n">
-        <v>7959734.545879302</v>
+        <v>15184371.9766941</v>
       </c>
       <c r="L10" t="n">
-        <v>11026910.99374226</v>
+        <v>15188059.05348768</v>
       </c>
       <c r="M10" t="n">
-        <v>21905401.3266466</v>
+        <v>15190673.26769505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-92163.36764272838</v>
+        <v>19340478.29573418</v>
       </c>
       <c r="C11" t="n">
-        <v>1234960.432455601</v>
+        <v>19843007.64258339</v>
       </c>
       <c r="D11" t="n">
-        <v>1072646.528800462</v>
+        <v>20335782.04044276</v>
       </c>
       <c r="E11" t="n">
-        <v>119616.7871288523</v>
+        <v>20818436.24265069</v>
       </c>
       <c r="F11" t="n">
-        <v>5547008.870720056</v>
+        <v>21292049.00430132</v>
       </c>
       <c r="G11" t="n">
-        <v>-1271731.825258391</v>
+        <v>21755301.48986569</v>
       </c>
       <c r="H11" t="n">
-        <v>-120457.6055684183</v>
+        <v>22209484.34923151</v>
       </c>
       <c r="I11" t="n">
-        <v>10835.05129916582</v>
+        <v>22654960.6439063</v>
       </c>
       <c r="J11" t="n">
-        <v>434166.545161186</v>
+        <v>23091921.17607505</v>
       </c>
       <c r="K11" t="n">
-        <v>-464627.3202336747</v>
+        <v>23518988.60660903</v>
       </c>
       <c r="L11" t="n">
-        <v>1298438.377185345</v>
+        <v>23937956.23199049</v>
       </c>
       <c r="M11" t="n">
-        <v>428939.5277494146</v>
+        <v>24347913.9498392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-130706.0140156472</v>
+        <v>41788026.50756388</v>
       </c>
       <c r="C12" t="n">
-        <v>724054.4554184942</v>
+        <v>44267691.05113747</v>
       </c>
       <c r="D12" t="n">
-        <v>1349824.257664956</v>
+        <v>40261790.63196609</v>
       </c>
       <c r="E12" t="n">
-        <v>668189.7157859708</v>
+        <v>36519402.46123397</v>
       </c>
       <c r="F12" t="n">
-        <v>660583.396682163</v>
+        <v>41531730.14100057</v>
       </c>
       <c r="G12" t="n">
-        <v>457382.398591097</v>
+        <v>45889901.6782145</v>
       </c>
       <c r="H12" t="n">
-        <v>887211.5273502098</v>
+        <v>41353941.33821678</v>
       </c>
       <c r="I12" t="n">
-        <v>434224.9383459328</v>
+        <v>47111187.06439476</v>
       </c>
       <c r="J12" t="n">
-        <v>699921.2765324557</v>
+        <v>50027247.17699856</v>
       </c>
       <c r="K12" t="n">
-        <v>619280.1837494611</v>
+        <v>51411790.64448098</v>
       </c>
       <c r="L12" t="n">
-        <v>649702.8767697576</v>
+        <v>39935101.26556391</v>
       </c>
       <c r="M12" t="n">
-        <v>765042.1652078244</v>
+        <v>39649155.57123046</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3239419.771520718</v>
+        <v>32726696.1903171</v>
       </c>
       <c r="C13" t="n">
-        <v>3582982.751815854</v>
+        <v>38515742.09926418</v>
       </c>
       <c r="D13" t="n">
-        <v>3919767.513620787</v>
+        <v>29544999.65027922</v>
       </c>
       <c r="E13" t="n">
-        <v>4249660.693977978</v>
+        <v>28495882.12851438</v>
       </c>
       <c r="F13" t="n">
-        <v>4573127.209329201</v>
+        <v>33061572.59783584</v>
       </c>
       <c r="G13" t="n">
-        <v>4889879.470766542</v>
+        <v>41156067.16291751</v>
       </c>
       <c r="H13" t="n">
-        <v>5200526.495219262</v>
+        <v>43236451.46511028</v>
       </c>
       <c r="I13" t="n">
-        <v>5504792.927074705</v>
+        <v>41269233.10968465</v>
       </c>
       <c r="J13" t="n">
-        <v>5803069.118982413</v>
+        <v>45671185.30563397</v>
       </c>
       <c r="K13" t="n">
-        <v>6095433.68474887</v>
+        <v>37601762.22043708</v>
       </c>
       <c r="L13" t="n">
-        <v>6381780.047295905</v>
+        <v>37521725.25689121</v>
       </c>
       <c r="M13" t="n">
-        <v>6662494.053122338</v>
+        <v>32397696.87679533</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75516.48711821641</v>
+        <v>1057342.446776909</v>
       </c>
       <c r="C14" t="n">
-        <v>211291.2370109292</v>
+        <v>1040825.524945584</v>
       </c>
       <c r="D14" t="n">
-        <v>256075.6056475617</v>
+        <v>1026086.547009558</v>
       </c>
       <c r="E14" t="n">
-        <v>89638.24558687019</v>
+        <v>1013880.182825142</v>
       </c>
       <c r="F14" t="n">
-        <v>17832.84024271331</v>
+        <v>1010038.018112658</v>
       </c>
       <c r="G14" t="n">
-        <v>69625.9866169075</v>
+        <v>1010205.271323151</v>
       </c>
       <c r="H14" t="n">
-        <v>75997.79946109391</v>
+        <v>990837.6237492291</v>
       </c>
       <c r="I14" t="n">
-        <v>103840.5187587314</v>
+        <v>987854.7790222852</v>
       </c>
       <c r="J14" t="n">
-        <v>85466.97215351404</v>
+        <v>981342.9597671229</v>
       </c>
       <c r="K14" t="n">
-        <v>191067.7303251517</v>
+        <v>981936.6127128475</v>
       </c>
       <c r="L14" t="n">
-        <v>48887.44518581071</v>
+        <v>984906.8949179777</v>
       </c>
       <c r="M14" t="n">
-        <v>109805.0174240575</v>
+        <v>969232.0018842651</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1121435.529740231</v>
+        <v>4525282.027492017</v>
       </c>
       <c r="C15" t="n">
-        <v>736530.6920818799</v>
+        <v>5078109.101354953</v>
       </c>
       <c r="D15" t="n">
-        <v>721541.617884177</v>
+        <v>5175622.117373496</v>
       </c>
       <c r="E15" t="n">
-        <v>864278.682389427</v>
+        <v>4620012.899869478</v>
       </c>
       <c r="F15" t="n">
-        <v>629056.8385880028</v>
+        <v>4841011.288118621</v>
       </c>
       <c r="G15" t="n">
-        <v>961373.2674865518</v>
+        <v>4510293.738138825</v>
       </c>
       <c r="H15" t="n">
-        <v>701832.6344922937</v>
+        <v>5107207.817811891</v>
       </c>
       <c r="I15" t="n">
-        <v>1053101.698992436</v>
+        <v>4966992.715457457</v>
       </c>
       <c r="J15" t="n">
-        <v>845580.1216885311</v>
+        <v>5070993.89441181</v>
       </c>
       <c r="K15" t="n">
-        <v>569010.5589604464</v>
+        <v>5416860.497195538</v>
       </c>
       <c r="L15" t="n">
-        <v>540178.4299883149</v>
+        <v>5332284.97549673</v>
       </c>
       <c r="M15" t="n">
-        <v>1951491.510589588</v>
+        <v>5168104.067975597</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1637096.847009028</v>
+        <v>7680769.155482859</v>
       </c>
       <c r="C16" t="n">
-        <v>1766506.221469299</v>
+        <v>9017694.890736638</v>
       </c>
       <c r="D16" t="n">
-        <v>1788495.588007875</v>
+        <v>10347683.9346781</v>
       </c>
       <c r="E16" t="n">
-        <v>1835513.585881425</v>
+        <v>9249881.545014314</v>
       </c>
       <c r="F16" t="n">
-        <v>1918480.08514253</v>
+        <v>9355222.256671889</v>
       </c>
       <c r="G16" t="n">
-        <v>1922462.310898951</v>
+        <v>9756413.301137647</v>
       </c>
       <c r="H16" t="n">
-        <v>1997008.810046691</v>
+        <v>8530743.970483538</v>
       </c>
       <c r="I16" t="n">
-        <v>2021190.502781171</v>
+        <v>10708336.92945849</v>
       </c>
       <c r="J16" t="n">
-        <v>2035886.971162305</v>
+        <v>10099379.56236663</v>
       </c>
       <c r="K16" t="n">
-        <v>2158851.270929153</v>
+        <v>10632888.35866885</v>
       </c>
       <c r="L16" t="n">
-        <v>2123641.758112744</v>
+        <v>10774441.87235738</v>
       </c>
       <c r="M16" t="n">
-        <v>2284028.482039054</v>
+        <v>8968511.448759818</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6267085.977299991</v>
+        <v>5283800.649127898</v>
       </c>
       <c r="C17" t="n">
-        <v>6337049.611540225</v>
+        <v>5330079.86316279</v>
       </c>
       <c r="D17" t="n">
-        <v>6405209.005686913</v>
+        <v>5379818.934733993</v>
       </c>
       <c r="E17" t="n">
-        <v>6471923.44756005</v>
+        <v>5425955.254221412</v>
       </c>
       <c r="F17" t="n">
-        <v>6537950.581683633</v>
+        <v>5473561.276535036</v>
       </c>
       <c r="G17" t="n">
-        <v>6601499.827651751</v>
+        <v>5519467.458511214</v>
       </c>
       <c r="H17" t="n">
-        <v>6664646.292337098</v>
+        <v>5565252.314879033</v>
       </c>
       <c r="I17" t="n">
-        <v>6726378.552998351</v>
+        <v>5606745.502592508</v>
       </c>
       <c r="J17" t="n">
-        <v>6786833.630318904</v>
+        <v>5651837.139445649</v>
       </c>
       <c r="K17" t="n">
-        <v>6845964.964806783</v>
+        <v>5693147.813988864</v>
       </c>
       <c r="L17" t="n">
-        <v>6904151.907259004</v>
+        <v>5734259.048191511</v>
       </c>
       <c r="M17" t="n">
-        <v>6961538.593670337</v>
+        <v>5767070.121771786</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176783.999000294</v>
+        <v>3610155.803581059</v>
       </c>
       <c r="C18" t="n">
-        <v>265411.2666802756</v>
+        <v>3587976.552591494</v>
       </c>
       <c r="D18" t="n">
-        <v>325945.9273047186</v>
+        <v>3672676.243580796</v>
       </c>
       <c r="E18" t="n">
-        <v>255091.9919806139</v>
+        <v>4312047.375353083</v>
       </c>
       <c r="F18" t="n">
-        <v>-126272.6410041559</v>
+        <v>3297779.832972294</v>
       </c>
       <c r="G18" t="n">
-        <v>169148.5125993543</v>
+        <v>3468842.865507817</v>
       </c>
       <c r="H18" t="n">
-        <v>-415421.0981159952</v>
+        <v>2945377.847297077</v>
       </c>
       <c r="I18" t="n">
-        <v>-464108.585822115</v>
+        <v>3609492.17715569</v>
       </c>
       <c r="J18" t="n">
-        <v>-350466.1136864491</v>
+        <v>3410021.629069009</v>
       </c>
       <c r="K18" t="n">
-        <v>-693390.1249679496</v>
+        <v>3846399.55778939</v>
       </c>
       <c r="L18" t="n">
-        <v>-213255.7647775197</v>
+        <v>3526054.42017085</v>
       </c>
       <c r="M18" t="n">
-        <v>525283.9847962102</v>
+        <v>3288663.710387539</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-42254.69852760948</v>
+        <v>5935239.933655583</v>
       </c>
       <c r="C19" t="n">
-        <v>2614.770522673607</v>
+        <v>7488701.239075039</v>
       </c>
       <c r="D19" t="n">
-        <v>42736.3955878581</v>
+        <v>4167416.050277667</v>
       </c>
       <c r="E19" t="n">
-        <v>-9853.685825415421</v>
+        <v>4176133.104352925</v>
       </c>
       <c r="F19" t="n">
-        <v>30074.32841955074</v>
+        <v>4643663.582751496</v>
       </c>
       <c r="G19" t="n">
-        <v>1023.604282981294</v>
+        <v>3926713.457425843</v>
       </c>
       <c r="H19" t="n">
-        <v>30899.23712664673</v>
+        <v>7878090.18559916</v>
       </c>
       <c r="I19" t="n">
-        <v>11258.60116712971</v>
+        <v>5470351.688084654</v>
       </c>
       <c r="J19" t="n">
-        <v>37281.94602507177</v>
+        <v>7528302.055507301</v>
       </c>
       <c r="K19" t="n">
-        <v>34626.91713847031</v>
+        <v>7226285.563632494</v>
       </c>
       <c r="L19" t="n">
-        <v>25523.02553769323</v>
+        <v>5072411.530595722</v>
       </c>
       <c r="M19" t="n">
-        <v>90096.15215048511</v>
+        <v>6293847.941543944</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1375534.589050371</v>
+        <v>1766778.558985271</v>
       </c>
       <c r="C20" t="n">
-        <v>2994314.725149312</v>
+        <v>1560601.930086595</v>
       </c>
       <c r="D20" t="n">
-        <v>1973988.429028941</v>
+        <v>125898.4388023741</v>
       </c>
       <c r="E20" t="n">
-        <v>2359108.890288406</v>
+        <v>962159.2914140229</v>
       </c>
       <c r="F20" t="n">
-        <v>2427534.64059799</v>
+        <v>1841903.696512501</v>
       </c>
       <c r="G20" t="n">
-        <v>2491799.663174949</v>
+        <v>998013.0745831174</v>
       </c>
       <c r="H20" t="n">
-        <v>2049467.232879529</v>
+        <v>593204.7293150707</v>
       </c>
       <c r="I20" t="n">
-        <v>2724992.027268504</v>
+        <v>1160503.469050895</v>
       </c>
       <c r="J20" t="n">
-        <v>3214167.290387241</v>
+        <v>1830960.165864631</v>
       </c>
       <c r="K20" t="n">
-        <v>1959215.836051721</v>
+        <v>1937557.602728791</v>
       </c>
       <c r="L20" t="n">
-        <v>2479100.708404485</v>
+        <v>937257.5819434833</v>
       </c>
       <c r="M20" t="n">
-        <v>2185801.790545268</v>
+        <v>897778.7246038453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1130364.19050247</v>
+        <v>2929306.856406213</v>
       </c>
       <c r="C21" t="n">
-        <v>2424288.817486639</v>
+        <v>3532488.337770447</v>
       </c>
       <c r="D21" t="n">
-        <v>1282335.619682482</v>
+        <v>3531607.594433629</v>
       </c>
       <c r="E21" t="n">
-        <v>2134571.725609254</v>
+        <v>3947893.16091834</v>
       </c>
       <c r="F21" t="n">
-        <v>2820636.398985905</v>
+        <v>4054915.298150037</v>
       </c>
       <c r="G21" t="n">
-        <v>1105822.348526773</v>
+        <v>3291676.687005024</v>
       </c>
       <c r="H21" t="n">
-        <v>1524869.055201131</v>
+        <v>3139915.273105663</v>
       </c>
       <c r="I21" t="n">
-        <v>1502854.481779213</v>
+        <v>2606487.377002836</v>
       </c>
       <c r="J21" t="n">
-        <v>1016336.122516433</v>
+        <v>3577198.916706833</v>
       </c>
       <c r="K21" t="n">
-        <v>2004804.964196237</v>
+        <v>4180451.35465812</v>
       </c>
       <c r="L21" t="n">
-        <v>1543196.293166446</v>
+        <v>4904213.090270303</v>
       </c>
       <c r="M21" t="n">
-        <v>1541375.771865407</v>
+        <v>3111021.597576954</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540874.0137288829</v>
+        <v>9334706.875766832</v>
       </c>
       <c r="C22" t="n">
-        <v>544851.1720198856</v>
+        <v>12267674.91597211</v>
       </c>
       <c r="D22" t="n">
-        <v>549131.7703507151</v>
+        <v>13195038.47429258</v>
       </c>
       <c r="E22" t="n">
-        <v>552569.6171416026</v>
+        <v>12091974.71323765</v>
       </c>
       <c r="F22" t="n">
-        <v>556051.0072520801</v>
+        <v>15196053.50526536</v>
       </c>
       <c r="G22" t="n">
-        <v>559534.2101252759</v>
+        <v>12103182.00685925</v>
       </c>
       <c r="H22" t="n">
-        <v>562639.7807915234</v>
+        <v>11656872.01441119</v>
       </c>
       <c r="I22" t="n">
-        <v>565746.7507369068</v>
+        <v>15948470.52889062</v>
       </c>
       <c r="J22" t="n">
-        <v>568703.0367366088</v>
+        <v>12789279.09788441</v>
       </c>
       <c r="K22" t="n">
-        <v>571491.6961828063</v>
+        <v>14957832.12766394</v>
       </c>
       <c r="L22" t="n">
-        <v>574320.0985287072</v>
+        <v>12380114.7390142</v>
       </c>
       <c r="M22" t="n">
-        <v>576762.6866897888</v>
+        <v>9587035.214810207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4028.017673562345</v>
+        <v>6931337.333666984</v>
       </c>
       <c r="C23" t="n">
-        <v>4183.823737286725</v>
+        <v>5943379.804412156</v>
       </c>
       <c r="D23" t="n">
-        <v>4115.783078987666</v>
+        <v>8557841.099214746</v>
       </c>
       <c r="E23" t="n">
-        <v>4032.746597863807</v>
+        <v>10095827.91075902</v>
       </c>
       <c r="F23" t="n">
-        <v>4086.414113289</v>
+        <v>8195402.017751982</v>
       </c>
       <c r="G23" t="n">
-        <v>4031.342062773319</v>
+        <v>8861550.522992667</v>
       </c>
       <c r="H23" t="n">
-        <v>4046.354456320725</v>
+        <v>9369239.582479889</v>
       </c>
       <c r="I23" t="n">
-        <v>4057.790816342639</v>
+        <v>8298374.931392534</v>
       </c>
       <c r="J23" t="n">
-        <v>4066.504134081765</v>
+        <v>5594516.729679558</v>
       </c>
       <c r="K23" t="n">
-        <v>4074.137987981233</v>
+        <v>8325945.642652832</v>
       </c>
       <c r="L23" t="n">
-        <v>4084.534776385968</v>
+        <v>4970222.684211299</v>
       </c>
       <c r="M23" t="n">
-        <v>4343.163615984983</v>
+        <v>4916683.59644173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7708813.191995956</v>
+        <v>10738698.82105515</v>
       </c>
       <c r="C24" t="n">
-        <v>9432527.133452779</v>
+        <v>11364440.4849258</v>
       </c>
       <c r="D24" t="n">
-        <v>9371849.054637671</v>
+        <v>12100664.53055063</v>
       </c>
       <c r="E24" t="n">
-        <v>8081178.38797803</v>
+        <v>9052041.345804404</v>
       </c>
       <c r="F24" t="n">
-        <v>9206557.809796451</v>
+        <v>10379654.3860756</v>
       </c>
       <c r="G24" t="n">
-        <v>9568260.371505542</v>
+        <v>10741817.86191613</v>
       </c>
       <c r="H24" t="n">
-        <v>9635534.463208646</v>
+        <v>9153977.402812967</v>
       </c>
       <c r="I24" t="n">
-        <v>7754705.309489199</v>
+        <v>11227964.87685074</v>
       </c>
       <c r="J24" t="n">
-        <v>9764332.416917533</v>
+        <v>10858626.96422564</v>
       </c>
       <c r="K24" t="n">
-        <v>9891931.10511668</v>
+        <v>12958796.84660697</v>
       </c>
       <c r="L24" t="n">
-        <v>11863708.7727324</v>
+        <v>13599854.1949581</v>
       </c>
       <c r="M24" t="n">
-        <v>13331693.57085458</v>
+        <v>9245979.433388676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1610591.117398446</v>
+        <v>4772616.308308084</v>
       </c>
       <c r="C25" t="n">
-        <v>2868843.662081831</v>
+        <v>5534281.053175556</v>
       </c>
       <c r="D25" t="n">
-        <v>2520611.953804971</v>
+        <v>5339347.195589613</v>
       </c>
       <c r="E25" t="n">
-        <v>2534037.603980265</v>
+        <v>4055210.220474586</v>
       </c>
       <c r="F25" t="n">
-        <v>2457831.967012911</v>
+        <v>4543847.31705117</v>
       </c>
       <c r="G25" t="n">
-        <v>2398021.167928208</v>
+        <v>4949590.793834996</v>
       </c>
       <c r="H25" t="n">
-        <v>2462746.026103958</v>
+        <v>6181686.413018994</v>
       </c>
       <c r="I25" t="n">
-        <v>2609600.344406809</v>
+        <v>5480745.69367302</v>
       </c>
       <c r="J25" t="n">
-        <v>2214414.884234728</v>
+        <v>5395254.001016169</v>
       </c>
       <c r="K25" t="n">
-        <v>3300666.760696293</v>
+        <v>5355686.525534969</v>
       </c>
       <c r="L25" t="n">
-        <v>2961962.832232371</v>
+        <v>5246077.537594231</v>
       </c>
       <c r="M25" t="n">
-        <v>3099429.187720871</v>
+        <v>3508930.474563741</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10294334.77594057</v>
+        <v>10122569.80449413</v>
       </c>
       <c r="C26" t="n">
-        <v>10227972.82268333</v>
+        <v>8453361.683724662</v>
       </c>
       <c r="D26" t="n">
-        <v>11019323.05408667</v>
+        <v>6659174.012895157</v>
       </c>
       <c r="E26" t="n">
-        <v>11719860.79156734</v>
+        <v>6707030.281564681</v>
       </c>
       <c r="F26" t="n">
-        <v>12712180.93520064</v>
+        <v>5084556.113713361</v>
       </c>
       <c r="G26" t="n">
-        <v>15222194.26445162</v>
+        <v>5464166.017091</v>
       </c>
       <c r="H26" t="n">
-        <v>13890781.64554191</v>
+        <v>8825584.902486997</v>
       </c>
       <c r="I26" t="n">
-        <v>14211048.57854701</v>
+        <v>9479381.639643753</v>
       </c>
       <c r="J26" t="n">
-        <v>12411589.81613288</v>
+        <v>9486730.173124513</v>
       </c>
       <c r="K26" t="n">
-        <v>13071859.82423554</v>
+        <v>9024339.887331206</v>
       </c>
       <c r="L26" t="n">
-        <v>14236835.02351588</v>
+        <v>10558973.9014104</v>
       </c>
       <c r="M26" t="n">
-        <v>13485679.63761679</v>
+        <v>7849651.459249914</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16644249.33244773</v>
+        <v>3462631.055146777</v>
       </c>
       <c r="C27" t="n">
-        <v>18264175.58608451</v>
+        <v>4114218.972924774</v>
       </c>
       <c r="D27" t="n">
-        <v>17617334.0119844</v>
+        <v>3163194.706850767</v>
       </c>
       <c r="E27" t="n">
-        <v>19125863.6889314</v>
+        <v>3092960.973617976</v>
       </c>
       <c r="F27" t="n">
-        <v>17779439.42990109</v>
+        <v>2716978.611190424</v>
       </c>
       <c r="G27" t="n">
-        <v>18803379.6037206</v>
+        <v>4552520.488695498</v>
       </c>
       <c r="H27" t="n">
-        <v>19623795.51125346</v>
+        <v>5290114.101337273</v>
       </c>
       <c r="I27" t="n">
-        <v>20291179.37899126</v>
+        <v>4384630.941467544</v>
       </c>
       <c r="J27" t="n">
-        <v>19832493.50454733</v>
+        <v>4195424.797858559</v>
       </c>
       <c r="K27" t="n">
-        <v>19974114.44729625</v>
+        <v>4408350.348023843</v>
       </c>
       <c r="L27" t="n">
-        <v>19773594.47612639</v>
+        <v>4104537.341078487</v>
       </c>
       <c r="M27" t="n">
-        <v>24618879.50639674</v>
+        <v>1773528.190489165</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20720667.80642887</v>
+        <v>12582574.74597134</v>
       </c>
       <c r="C28" t="n">
-        <v>21234714.87791379</v>
+        <v>11819655.23827394</v>
       </c>
       <c r="D28" t="n">
-        <v>21738375.32682397</v>
+        <v>12524638.31156655</v>
       </c>
       <c r="E28" t="n">
-        <v>22231530.12499892</v>
+        <v>9066342.861576002</v>
       </c>
       <c r="F28" t="n">
-        <v>22714470.50533614</v>
+        <v>11729975.86268037</v>
       </c>
       <c r="G28" t="n">
-        <v>23187515.06641124</v>
+        <v>14212888.28108907</v>
       </c>
       <c r="H28" t="n">
-        <v>23652225.15990787</v>
+        <v>12472106.47681748</v>
       </c>
       <c r="I28" t="n">
-        <v>24105289.28984848</v>
+        <v>11156947.85162298</v>
       </c>
       <c r="J28" t="n">
-        <v>24550309.2396247</v>
+        <v>10798709.21667335</v>
       </c>
       <c r="K28" t="n">
-        <v>24987129.86869724</v>
+        <v>11644026.80576011</v>
       </c>
       <c r="L28" t="n">
-        <v>25414637.09610691</v>
+        <v>13710053.2370163</v>
       </c>
       <c r="M28" t="n">
-        <v>25833327.15357958</v>
+        <v>9315435.087523863</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23143104.33522032</v>
+        <v>1832606.711741193</v>
       </c>
       <c r="C29" t="n">
-        <v>24005259.33213862</v>
+        <v>1847174.479574134</v>
       </c>
       <c r="D29" t="n">
-        <v>24849545.65181378</v>
+        <v>1861353.922822539</v>
       </c>
       <c r="E29" t="n">
-        <v>25677394.83885992</v>
+        <v>1875225.687832791</v>
       </c>
       <c r="F29" t="n">
-        <v>26488355.39326932</v>
+        <v>1888900.232840787</v>
       </c>
       <c r="G29" t="n">
-        <v>27283778.9885174</v>
+        <v>1902228.590146662</v>
       </c>
       <c r="H29" t="n">
-        <v>28062257.17504967</v>
+        <v>1915222.988749271</v>
       </c>
       <c r="I29" t="n">
-        <v>28825585.94261883</v>
+        <v>1928145.929720423</v>
       </c>
       <c r="J29" t="n">
-        <v>29573979.62000023</v>
+        <v>1940722.26058999</v>
       </c>
       <c r="K29" t="n">
-        <v>30307715.76865247</v>
+        <v>1953085.498534</v>
       </c>
       <c r="L29" t="n">
-        <v>31025510.6313918</v>
+        <v>1965086.275978397</v>
       </c>
       <c r="M29" t="n">
-        <v>31729649.03977589</v>
+        <v>1976900.050764476</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41062423.23170695</v>
+        <v>322109.8051972301</v>
       </c>
       <c r="C30" t="n">
-        <v>43221691.76326003</v>
+        <v>286274.3906392695</v>
       </c>
       <c r="D30" t="n">
-        <v>45697330.05099574</v>
+        <v>253853.5810008174</v>
       </c>
       <c r="E30" t="n">
-        <v>41565839.98300586</v>
+        <v>224397.168539385</v>
       </c>
       <c r="F30" t="n">
-        <v>37785229.93745523</v>
+        <v>197733.0861988255</v>
       </c>
       <c r="G30" t="n">
-        <v>42837415.20332564</v>
+        <v>173641.5143981669</v>
       </c>
       <c r="H30" t="n">
-        <v>47301192.33944479</v>
+        <v>151748.5767039925</v>
       </c>
       <c r="I30" t="n">
-        <v>42816401.99615476</v>
+        <v>131957.4380597786</v>
       </c>
       <c r="J30" t="n">
-        <v>48587297.9586551</v>
+        <v>113946.9393986363</v>
       </c>
       <c r="K30" t="n">
-        <v>51481374.95561693</v>
+        <v>97688.07476861375</v>
       </c>
       <c r="L30" t="n">
-        <v>52802703.62632183</v>
+        <v>83049.00666323635</v>
       </c>
       <c r="M30" t="n">
-        <v>41451086.29137214</v>
+        <v>69591.79909054383</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28867686.30211533</v>
+        <v>1034016.533355997</v>
       </c>
       <c r="C31" t="n">
-        <v>33363604.74889859</v>
+        <v>1140217.754705316</v>
       </c>
       <c r="D31" t="n">
-        <v>38920119.2778281</v>
+        <v>865715.2626966606</v>
       </c>
       <c r="E31" t="n">
-        <v>30426151.55303198</v>
+        <v>872925.6547970467</v>
       </c>
       <c r="F31" t="n">
-        <v>29220391.38852564</v>
+        <v>875980.6868494155</v>
       </c>
       <c r="G31" t="n">
-        <v>33761514.96899962</v>
+        <v>823059.0656564631</v>
       </c>
       <c r="H31" t="n">
-        <v>41592810.44352032</v>
+        <v>836749.361314586</v>
       </c>
       <c r="I31" t="n">
-        <v>43702840.21138825</v>
+        <v>950685.465016969</v>
       </c>
       <c r="J31" t="n">
-        <v>41957718.34372853</v>
+        <v>1054356.630506139</v>
       </c>
       <c r="K31" t="n">
-        <v>46002196.96888981</v>
+        <v>1027944.700150288</v>
       </c>
       <c r="L31" t="n">
-        <v>38200497.34048709</v>
+        <v>1294266.844143883</v>
       </c>
       <c r="M31" t="n">
-        <v>37847641.96387217</v>
+        <v>1416637.795058077</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1557410.647291135</v>
+        <v>1678174.777980438</v>
       </c>
       <c r="C32" t="n">
-        <v>1668714.637844619</v>
+        <v>1899771.760337971</v>
       </c>
       <c r="D32" t="n">
-        <v>1776441.143162264</v>
+        <v>1896209.732324333</v>
       </c>
       <c r="E32" t="n">
-        <v>1880460.216022693</v>
+        <v>1696535.083337022</v>
       </c>
       <c r="F32" t="n">
-        <v>1982218.839775522</v>
+        <v>1680126.306888676</v>
       </c>
       <c r="G32" t="n">
-        <v>2087861.232831479</v>
+        <v>1806944.075841005</v>
       </c>
       <c r="H32" t="n">
-        <v>2193510.46326282</v>
+        <v>1700281.514839474</v>
       </c>
       <c r="I32" t="n">
-        <v>2276945.416120402</v>
+        <v>1682384.510462374</v>
       </c>
       <c r="J32" t="n">
-        <v>2373432.126277457</v>
+        <v>1768914.244947873</v>
       </c>
       <c r="K32" t="n">
-        <v>2463655.964349936</v>
+        <v>1546035.487307412</v>
       </c>
       <c r="L32" t="n">
-        <v>2558220.888432533</v>
+        <v>1962366.519530598</v>
       </c>
       <c r="M32" t="n">
-        <v>2652629.341598764</v>
+        <v>1569802.04706718</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4800419.402220279</v>
+        <v>2813365.03221595</v>
       </c>
       <c r="C33" t="n">
-        <v>4832932.402803659</v>
+        <v>2848565.261775945</v>
       </c>
       <c r="D33" t="n">
-        <v>5280481.235298978</v>
+        <v>2882970.412551344</v>
       </c>
       <c r="E33" t="n">
-        <v>5354157.938528997</v>
+        <v>2916601.422933847</v>
       </c>
       <c r="F33" t="n">
-        <v>4894572.167599441</v>
+        <v>2949836.561517412</v>
       </c>
       <c r="G33" t="n">
-        <v>5090805.561881763</v>
+        <v>2982207.403688872</v>
       </c>
       <c r="H33" t="n">
-        <v>4842476.404237418</v>
+        <v>3013878.376614601</v>
       </c>
       <c r="I33" t="n">
-        <v>5352271.909397657</v>
+        <v>3044990.800519929</v>
       </c>
       <c r="J33" t="n">
-        <v>5227739.500699648</v>
+        <v>3075348.522065221</v>
       </c>
       <c r="K33" t="n">
-        <v>5317076.767415065</v>
+        <v>3105187.233292158</v>
       </c>
       <c r="L33" t="n">
-        <v>5600373.575816387</v>
+        <v>3134658.804977268</v>
       </c>
       <c r="M33" t="n">
-        <v>5514328.03587017</v>
+        <v>3163222.065868597</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10888251.18920618</v>
+        <v>2241370.803646581</v>
       </c>
       <c r="C34" t="n">
-        <v>8931199.073605748</v>
+        <v>2733846.9984907</v>
       </c>
       <c r="D34" t="n">
-        <v>10298691.06311685</v>
+        <v>2298252.324060799</v>
       </c>
       <c r="E34" t="n">
-        <v>12031561.21904163</v>
+        <v>2770003.183502189</v>
       </c>
       <c r="F34" t="n">
-        <v>10917833.10972056</v>
+        <v>3039430.286705699</v>
       </c>
       <c r="G34" t="n">
-        <v>11054136.11217477</v>
+        <v>3098237.694257639</v>
       </c>
       <c r="H34" t="n">
-        <v>11558936.23540756</v>
+        <v>3407211.612871876</v>
       </c>
       <c r="I34" t="n">
-        <v>10176880.14427967</v>
+        <v>2987773.694609295</v>
       </c>
       <c r="J34" t="n">
-        <v>12503921.87689984</v>
+        <v>3709986.090538464</v>
       </c>
       <c r="K34" t="n">
-        <v>11920652.30733098</v>
+        <v>2805545.957022906</v>
       </c>
       <c r="L34" t="n">
-        <v>12501055.36260599</v>
+        <v>3074004.021290181</v>
       </c>
       <c r="M34" t="n">
-        <v>12631050.34599927</v>
+        <v>2480435.85914066</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6136106.24700979</v>
+        <v>1311027.925857559</v>
       </c>
       <c r="C35" t="n">
-        <v>6213673.78258768</v>
+        <v>1689949.177800205</v>
       </c>
       <c r="D35" t="n">
-        <v>6289021.33780827</v>
+        <v>1372245.348062894</v>
       </c>
       <c r="E35" t="n">
-        <v>6363286.176501554</v>
+        <v>1339227.090407968</v>
       </c>
       <c r="F35" t="n">
-        <v>6435811.982913559</v>
+        <v>1269354.750844374</v>
       </c>
       <c r="G35" t="n">
-        <v>6507114.265757593</v>
+        <v>1656924.074339046</v>
       </c>
       <c r="H35" t="n">
-        <v>6576910.102256588</v>
+        <v>1451591.068954962</v>
       </c>
       <c r="I35" t="n">
-        <v>6645380.490416023</v>
+        <v>1642958.769465614</v>
       </c>
       <c r="J35" t="n">
-        <v>6712165.324639656</v>
+        <v>1561920.262537474</v>
       </c>
       <c r="K35" t="n">
-        <v>6778037.483375856</v>
+        <v>1275885.816095161</v>
       </c>
       <c r="L35" t="n">
-        <v>6842310.543088115</v>
+        <v>1591155.939630803</v>
       </c>
       <c r="M35" t="n">
-        <v>6905362.374309751</v>
+        <v>1188140.431733846</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3115093.310133986</v>
+        <v>1657913.66783103</v>
       </c>
       <c r="C36" t="n">
-        <v>3594620.03439815</v>
+        <v>1346638.394506715</v>
       </c>
       <c r="D36" t="n">
-        <v>3572002.821390911</v>
+        <v>1489888.628280435</v>
       </c>
       <c r="E36" t="n">
-        <v>3667785.36226062</v>
+        <v>1270800.751138233</v>
       </c>
       <c r="F36" t="n">
-        <v>4301417.714898685</v>
+        <v>1367492.830499148</v>
       </c>
       <c r="G36" t="n">
-        <v>3260168.825248896</v>
+        <v>1301073.992568639</v>
       </c>
       <c r="H36" t="n">
-        <v>3459127.984974875</v>
+        <v>1048143.514994855</v>
       </c>
       <c r="I36" t="n">
-        <v>2914887.619925272</v>
+        <v>987930.4343332748</v>
       </c>
       <c r="J36" t="n">
-        <v>3594025.385168286</v>
+        <v>1266036.349739471</v>
       </c>
       <c r="K36" t="n">
-        <v>3400611.436644058</v>
+        <v>725744.7753983784</v>
       </c>
       <c r="L36" t="n">
-        <v>3844170.094970905</v>
+        <v>669499.9845637309</v>
       </c>
       <c r="M36" t="n">
-        <v>3498097.472129489</v>
+        <v>1000430.484112072</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3548517.761058745</v>
+        <v>3309802.670337871</v>
       </c>
       <c r="C37" t="n">
-        <v>5182687.497645902</v>
+        <v>4326545.145036645</v>
       </c>
       <c r="D37" t="n">
-        <v>6651823.933183193</v>
+        <v>4256698.30736356</v>
       </c>
       <c r="E37" t="n">
-        <v>3933294.22921998</v>
+        <v>3715125.24115941</v>
       </c>
       <c r="F37" t="n">
-        <v>3513548.11792888</v>
+        <v>3439398.574152995</v>
       </c>
       <c r="G37" t="n">
-        <v>4696053.145123727</v>
+        <v>4348787.090190902</v>
       </c>
       <c r="H37" t="n">
-        <v>5409319.882315523</v>
+        <v>4706703.926992649</v>
       </c>
       <c r="I37" t="n">
-        <v>7282966.824673619</v>
+        <v>4086630.018283702</v>
       </c>
       <c r="J37" t="n">
-        <v>4938171.546355763</v>
+        <v>4615746.822274803</v>
       </c>
       <c r="K37" t="n">
-        <v>6981843.699431962</v>
+        <v>4064263.249396564</v>
       </c>
       <c r="L37" t="n">
-        <v>5878762.662589032</v>
+        <v>3237073.118924301</v>
       </c>
       <c r="M37" t="n">
-        <v>5747857.270437784</v>
+        <v>3135698.747351323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1328644.690552206</v>
+        <v>4109362.897588471</v>
       </c>
       <c r="C38" t="n">
-        <v>2104185.728295333</v>
+        <v>3974627.433037879</v>
       </c>
       <c r="D38" t="n">
-        <v>1917938.912956568</v>
+        <v>4209811.435868567</v>
       </c>
       <c r="E38" t="n">
-        <v>415223.5450101527</v>
+        <v>4675786.294622783</v>
       </c>
       <c r="F38" t="n">
-        <v>1250069.813207497</v>
+        <v>4524892.979916816</v>
       </c>
       <c r="G38" t="n">
-        <v>2136041.081284023</v>
+        <v>4705079.079594899</v>
       </c>
       <c r="H38" t="n">
-        <v>1297855.621204911</v>
+        <v>4608607.777252917</v>
       </c>
       <c r="I38" t="n">
-        <v>901906.5334395813</v>
+        <v>5226828.187845712</v>
       </c>
       <c r="J38" t="n">
-        <v>1459608.853091103</v>
+        <v>5800858.247996707</v>
       </c>
       <c r="K38" t="n">
-        <v>2154423.399850835</v>
+        <v>4579190.804062018</v>
       </c>
       <c r="L38" t="n">
-        <v>2236543.663811367</v>
+        <v>5599275.185561326</v>
       </c>
       <c r="M38" t="n">
-        <v>1234846.275160258</v>
+        <v>4279347.020855398</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3879282.038188972</v>
+        <v>3745943.328517277</v>
       </c>
       <c r="C39" t="n">
-        <v>3386473.056569237</v>
+        <v>5436053.96137812</v>
       </c>
       <c r="D39" t="n">
-        <v>4012882.0664222</v>
+        <v>5405447.562800449</v>
       </c>
       <c r="E39" t="n">
-        <v>4046300.915773825</v>
+        <v>5680615.192009563</v>
       </c>
       <c r="F39" t="n">
-        <v>4405015.779275071</v>
+        <v>5780248.943378934</v>
       </c>
       <c r="G39" t="n">
-        <v>4577808.707566148</v>
+        <v>5465048.165879411</v>
       </c>
       <c r="H39" t="n">
-        <v>3829396.617021072</v>
+        <v>6493688.710185077</v>
       </c>
       <c r="I39" t="n">
-        <v>3667639.954059828</v>
+        <v>4630907.684318552</v>
       </c>
       <c r="J39" t="n">
-        <v>3105974.663105123</v>
+        <v>6558784.924389262</v>
       </c>
       <c r="K39" t="n">
-        <v>4078223.01105459</v>
+        <v>4478972.286322219</v>
       </c>
       <c r="L39" t="n">
-        <v>4789300.555009427</v>
+        <v>4926806.552574872</v>
       </c>
       <c r="M39" t="n">
-        <v>5474524.684248696</v>
+        <v>4149546.563407047</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10872244.29220067</v>
+        <v>4248318.297227362</v>
       </c>
       <c r="C40" t="n">
-        <v>10040427.50126654</v>
+        <v>4970559.193875122</v>
       </c>
       <c r="D40" t="n">
-        <v>13027335.90449489</v>
+        <v>4866644.94150476</v>
       </c>
       <c r="E40" t="n">
-        <v>14041357.2847515</v>
+        <v>4908253.079939256</v>
       </c>
       <c r="F40" t="n">
-        <v>12992481.66854661</v>
+        <v>5166052.934366971</v>
       </c>
       <c r="G40" t="n">
-        <v>16130649.86376054</v>
+        <v>4823883.315104658</v>
       </c>
       <c r="H40" t="n">
-        <v>13088686.87277781</v>
+        <v>5104416.244670724</v>
       </c>
       <c r="I40" t="n">
-        <v>12673468.65945848</v>
+        <v>4900893.584013025</v>
       </c>
       <c r="J40" t="n">
-        <v>16969209.63248995</v>
+        <v>5362643.838444856</v>
       </c>
       <c r="K40" t="n">
-        <v>13857775.16690082</v>
+        <v>4793341.182951165</v>
       </c>
       <c r="L40" t="n">
-        <v>16029772.65447672</v>
+        <v>5320738.188556066</v>
       </c>
       <c r="M40" t="n">
-        <v>13498770.92525478</v>
+        <v>4407133.990312122</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1946896.29300712</v>
+        <v>2203178.212296088</v>
       </c>
       <c r="C41" t="n">
-        <v>6981127.986850372</v>
+        <v>2894462.424269356</v>
       </c>
       <c r="D41" t="n">
-        <v>5989429.105874006</v>
+        <v>3299700.913562164</v>
       </c>
       <c r="E41" t="n">
-        <v>8600179.676918358</v>
+        <v>2656666.857348397</v>
       </c>
       <c r="F41" t="n">
-        <v>10134601.25343328</v>
+        <v>2985941.281151055</v>
       </c>
       <c r="G41" t="n">
-        <v>8230893.835024526</v>
+        <v>3094126.410697406</v>
       </c>
       <c r="H41" t="n">
-        <v>8893979.511446323</v>
+        <v>2920043.791634906</v>
       </c>
       <c r="I41" t="n">
-        <v>9398885.640635405</v>
+        <v>3545673.76585032</v>
       </c>
       <c r="J41" t="n">
-        <v>8325490.704613692</v>
+        <v>3480697.680495991</v>
       </c>
       <c r="K41" t="n">
-        <v>5619366.017957303</v>
+        <v>2800630.968800311</v>
       </c>
       <c r="L41" t="n">
-        <v>8348714.096852064</v>
+        <v>3637855.012791592</v>
       </c>
       <c r="M41" t="n">
-        <v>4991132.719333911</v>
+        <v>2512585.313773275</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7948729.003813969</v>
+        <v>3234160.170675128</v>
       </c>
       <c r="C42" t="n">
-        <v>10581658.04142971</v>
+        <v>3656545.496141393</v>
       </c>
       <c r="D42" t="n">
-        <v>11220783.6020732</v>
+        <v>3546114.776695185</v>
       </c>
       <c r="E42" t="n">
-        <v>11943462.38922002</v>
+        <v>3795259.591008721</v>
       </c>
       <c r="F42" t="n">
-        <v>8881327.677258722</v>
+        <v>3859884.452912214</v>
       </c>
       <c r="G42" t="n">
-        <v>10217829.72658602</v>
+        <v>3984789.838703482</v>
       </c>
       <c r="H42" t="n">
-        <v>10582844.48489611</v>
+        <v>4331451.340380597</v>
       </c>
       <c r="I42" t="n">
-        <v>8991724.154871635</v>
+        <v>4646064.928142319</v>
       </c>
       <c r="J42" t="n">
-        <v>11069665.85081946</v>
+        <v>4690726.597386289</v>
       </c>
       <c r="K42" t="n">
-        <v>10719179.0961847</v>
+        <v>4352029.656596187</v>
       </c>
       <c r="L42" t="n">
-        <v>12848109.82429933</v>
+        <v>4203545.919272896</v>
       </c>
       <c r="M42" t="n">
-        <v>13444540.3533663</v>
+        <v>3058594.468219366</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3501886.926928836</v>
+        <v>2038445.542923823</v>
       </c>
       <c r="C43" t="n">
-        <v>4769681.944937294</v>
+        <v>3133893.608501328</v>
       </c>
       <c r="D43" t="n">
-        <v>5597597.469414225</v>
+        <v>3113120.370683719</v>
       </c>
       <c r="E43" t="n">
-        <v>5320102.888622006</v>
+        <v>3030232.853800091</v>
       </c>
       <c r="F43" t="n">
-        <v>4026187.51912849</v>
+        <v>2994017.911150855</v>
       </c>
       <c r="G43" t="n">
-        <v>4517265.164018827</v>
+        <v>3056038.669140412</v>
       </c>
       <c r="H43" t="n">
-        <v>4979353.418547383</v>
+        <v>3040473.433532665</v>
       </c>
       <c r="I43" t="n">
-        <v>6084537.197216251</v>
+        <v>2884965.22612185</v>
       </c>
       <c r="J43" t="n">
-        <v>5568021.241809214</v>
+        <v>3195157.652914868</v>
       </c>
       <c r="K43" t="n">
-        <v>5467895.768854363</v>
+        <v>2707692.346511835</v>
       </c>
       <c r="L43" t="n">
-        <v>5388832.346653</v>
+        <v>3376205.437780631</v>
       </c>
       <c r="M43" t="n">
-        <v>5348412.095463923</v>
+        <v>2284578.589986681</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7386633.753616339</v>
+        <v>4569797.947462411</v>
       </c>
       <c r="C44" t="n">
-        <v>7647933.997755247</v>
+        <v>5183280.930218376</v>
       </c>
       <c r="D44" t="n">
-        <v>8596139.954520378</v>
+        <v>5444756.555590289</v>
       </c>
       <c r="E44" t="n">
-        <v>6184574.913721976</v>
+        <v>5805544.809789041</v>
       </c>
       <c r="F44" t="n">
-        <v>6099787.205075771</v>
+        <v>5440827.433990707</v>
       </c>
       <c r="G44" t="n">
-        <v>7505135.905066742</v>
+        <v>5515581.379013798</v>
       </c>
       <c r="H44" t="n">
-        <v>8885860.315511152</v>
+        <v>6103364.651471974</v>
       </c>
       <c r="I44" t="n">
-        <v>11210503.29590113</v>
+        <v>6687572.313668725</v>
       </c>
       <c r="J44" t="n">
-        <v>10113755.90977605</v>
+        <v>6346256.841645854</v>
       </c>
       <c r="K44" t="n">
-        <v>10093545.33858558</v>
+        <v>5947620.583700292</v>
       </c>
       <c r="L44" t="n">
-        <v>8862190.581876826</v>
+        <v>6032804.524163191</v>
       </c>
       <c r="M44" t="n">
-        <v>14112486.69839056</v>
+        <v>3954757.483631473</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3047710.272109086</v>
+        <v>2630863.452990049</v>
       </c>
       <c r="C45" t="n">
-        <v>4398225.91456084</v>
+        <v>3039557.17118705</v>
       </c>
       <c r="D45" t="n">
-        <v>4914797.289274705</v>
+        <v>3322766.577137807</v>
       </c>
       <c r="E45" t="n">
-        <v>3655246.667709214</v>
+        <v>3165341.38502827</v>
       </c>
       <c r="F45" t="n">
-        <v>3529518.074962648</v>
+        <v>2717539.08104424</v>
       </c>
       <c r="G45" t="n">
-        <v>2852156.202863047</v>
+        <v>2973642.069436079</v>
       </c>
       <c r="H45" t="n">
-        <v>4445758.747778598</v>
+        <v>2971764.024350653</v>
       </c>
       <c r="I45" t="n">
-        <v>5293296.562299307</v>
+        <v>3187326.868085176</v>
       </c>
       <c r="J45" t="n">
-        <v>4467983.417505323</v>
+        <v>3014906.378244838</v>
       </c>
       <c r="K45" t="n">
-        <v>4316280.368432971</v>
+        <v>2287200.178361435</v>
       </c>
       <c r="L45" t="n">
-        <v>4835319.755644467</v>
+        <v>3216774.750541882</v>
       </c>
       <c r="M45" t="n">
-        <v>4580060.971210251</v>
+        <v>2304003.431338117</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10064594.26342188</v>
+        <v>2019246.616398346</v>
       </c>
       <c r="C46" t="n">
-        <v>12289876.19195843</v>
+        <v>2529446.530829806</v>
       </c>
       <c r="D46" t="n">
-        <v>11655675.48678304</v>
+        <v>1914112.102872117</v>
       </c>
       <c r="E46" t="n">
-        <v>12146437.34179695</v>
+        <v>2269047.367333078</v>
       </c>
       <c r="F46" t="n">
-        <v>8567905.475192189</v>
+        <v>2115548.658956809</v>
       </c>
       <c r="G46" t="n">
-        <v>11242503.77910065</v>
+        <v>2168377.373899994</v>
       </c>
       <c r="H46" t="n">
-        <v>13324281.80411842</v>
+        <v>2082992.873617454</v>
       </c>
       <c r="I46" t="n">
-        <v>12484426.23205432</v>
+        <v>2868225.668983554</v>
       </c>
       <c r="J46" t="n">
-        <v>11051866.58412405</v>
+        <v>2587760.708219589</v>
       </c>
       <c r="K46" t="n">
-        <v>10550267.60181952</v>
+        <v>1719260.835262314</v>
       </c>
       <c r="L46" t="n">
-        <v>10928155.36727678</v>
+        <v>2071431.698853645</v>
       </c>
       <c r="M46" t="n">
-        <v>12721745.03813702</v>
+        <v>1674483.992910379</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2304805.285451807</v>
+        <v>1870433.093182489</v>
       </c>
       <c r="C47" t="n">
-        <v>2345814.878475552</v>
+        <v>1878706.43355666</v>
       </c>
       <c r="D47" t="n">
-        <v>2386092.692436767</v>
+        <v>1886794.920508438</v>
       </c>
       <c r="E47" t="n">
-        <v>2425473.801199405</v>
+        <v>1894622.934828257</v>
       </c>
       <c r="F47" t="n">
-        <v>2464038.610870578</v>
+        <v>1902235.894622707</v>
       </c>
       <c r="G47" t="n">
-        <v>2501911.007330416</v>
+        <v>1909908.442691935</v>
       </c>
       <c r="H47" t="n">
-        <v>2538958.729265154</v>
+        <v>1917258.695356143</v>
       </c>
       <c r="I47" t="n">
-        <v>2575195.674053178</v>
+        <v>1924551.644747931</v>
       </c>
       <c r="J47" t="n">
-        <v>2610893.578472926</v>
+        <v>1931662.79866734</v>
       </c>
       <c r="K47" t="n">
-        <v>2645801.259141379</v>
+        <v>1938477.223892481</v>
       </c>
       <c r="L47" t="n">
-        <v>2680046.310804063</v>
+        <v>1945342.159882766</v>
       </c>
       <c r="M47" t="n">
-        <v>2713492.964236704</v>
+        <v>1951955.486025854</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>267137.6254754668</v>
+        <v>4560707.420210361</v>
       </c>
       <c r="C48" t="n">
-        <v>176457.2963169742</v>
+        <v>5245558.202030928</v>
       </c>
       <c r="D48" t="n">
-        <v>88666.0527268583</v>
+        <v>5696452.54858985</v>
       </c>
       <c r="E48" t="n">
-        <v>38489.5004599695</v>
+        <v>4527358.725696179</v>
       </c>
       <c r="F48" t="n">
-        <v>-72437.71260670657</v>
+        <v>4377753.098299369</v>
       </c>
       <c r="G48" t="n">
-        <v>-158665.1120857722</v>
+        <v>5012643.388307185</v>
       </c>
       <c r="H48" t="n">
-        <v>-188911.7673266325</v>
+        <v>4073115.447303435</v>
       </c>
       <c r="I48" t="n">
-        <v>-271204.6528062364</v>
+        <v>4750487.982394475</v>
       </c>
       <c r="J48" t="n">
-        <v>-313790.4492206895</v>
+        <v>6001446.664220732</v>
       </c>
       <c r="K48" t="n">
-        <v>-419168.5454416331</v>
+        <v>4139688.63305782</v>
       </c>
       <c r="L48" t="n">
-        <v>-470594.2161244007</v>
+        <v>5066138.726996768</v>
       </c>
       <c r="M48" t="n">
-        <v>-452053.5303148776</v>
+        <v>3832794.374977852</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>544336.5094912911</v>
+        <v>975528.5908283711</v>
       </c>
       <c r="C49" t="n">
-        <v>798237.9276586488</v>
+        <v>1180966.954503197</v>
       </c>
       <c r="D49" t="n">
-        <v>892771.8375932529</v>
+        <v>1130727.746422395</v>
       </c>
       <c r="E49" t="n">
-        <v>614376.9223382361</v>
+        <v>908970.4288586286</v>
       </c>
       <c r="F49" t="n">
-        <v>620055.3492730804</v>
+        <v>967596.1737227944</v>
       </c>
       <c r="G49" t="n">
-        <v>616550.3649993759</v>
+        <v>932681.346405035</v>
       </c>
       <c r="H49" t="n">
-        <v>561741.0238610801</v>
+        <v>948796.2905314432</v>
       </c>
       <c r="I49" t="n">
-        <v>569069.836881476</v>
+        <v>1293415.246506325</v>
       </c>
       <c r="J49" t="n">
-        <v>679064.9237368697</v>
+        <v>1087846.947254191</v>
       </c>
       <c r="K49" t="n">
-        <v>780342.0352365305</v>
+        <v>741602.6413277716</v>
       </c>
       <c r="L49" t="n">
-        <v>752525.7643929351</v>
+        <v>1056501.060205578</v>
       </c>
       <c r="M49" t="n">
-        <v>1018722.257727421</v>
+        <v>827845.1380292157</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1525569.9405681</v>
+        <v>2759643.892076249</v>
       </c>
       <c r="C50" t="n">
-        <v>1616793.22794954</v>
+        <v>2794356.672336571</v>
       </c>
       <c r="D50" t="n">
-        <v>1750219.383379868</v>
+        <v>2828391.576377303</v>
       </c>
       <c r="E50" t="n">
-        <v>1748313.886494102</v>
+        <v>2861555.259041444</v>
       </c>
       <c r="F50" t="n">
-        <v>1597984.455852803</v>
+        <v>2894355.699024324</v>
       </c>
       <c r="G50" t="n">
-        <v>1639667.529146804</v>
+        <v>2926015.106554783</v>
       </c>
       <c r="H50" t="n">
-        <v>1698407.576214972</v>
+        <v>2957416.374596177</v>
       </c>
       <c r="I50" t="n">
-        <v>1655007.599489242</v>
+        <v>2988037.05243203</v>
       </c>
       <c r="J50" t="n">
-        <v>1704452.733696274</v>
+        <v>3018050.562964892</v>
       </c>
       <c r="K50" t="n">
-        <v>1775698.627411975</v>
+        <v>3047488.02704492</v>
       </c>
       <c r="L50" t="n">
-        <v>1722194.667329892</v>
+        <v>3076478.805808473</v>
       </c>
       <c r="M50" t="n">
-        <v>2067991.28844851</v>
+        <v>3104496.232393434</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2935352.65312144</v>
+        <v>3136475.028356832</v>
       </c>
       <c r="C51" t="n">
-        <v>2967135.916051762</v>
+        <v>3132863.084855031</v>
       </c>
       <c r="D51" t="n">
-        <v>2998524.54029579</v>
+        <v>3215650.61323389</v>
       </c>
       <c r="E51" t="n">
-        <v>3029100.293464393</v>
+        <v>3152174.487218588</v>
       </c>
       <c r="F51" t="n">
-        <v>3058896.44930602</v>
+        <v>3169374.792074217</v>
       </c>
       <c r="G51" t="n">
-        <v>3088640.78555492</v>
+        <v>3188282.467395111</v>
       </c>
       <c r="H51" t="n">
-        <v>3117389.528432483</v>
+        <v>3238045.822296319</v>
       </c>
       <c r="I51" t="n">
-        <v>3145464.307010158</v>
+        <v>3302655.366572565</v>
       </c>
       <c r="J51" t="n">
-        <v>3173127.285524266</v>
+        <v>3282324.734273504</v>
       </c>
       <c r="K51" t="n">
-        <v>3199976.077405982</v>
+        <v>3192585.473330343</v>
       </c>
       <c r="L51" t="n">
-        <v>3226464.682015532</v>
+        <v>3243266.980810898</v>
       </c>
       <c r="M51" t="n">
-        <v>3252870.047670404</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2191980.571255085</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2228500.167342342</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2797358.471719181</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2350594.084978386</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2899574.84583094</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3230346.5095991</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3351510.590111804</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3672775.696029178</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3225136.653714135</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4052242.899786792</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3125321.765664812</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3441808.143508557</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1553351.857307035</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1641976.505034354</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1893710.802151029</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1655598.818933911</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1643864.252512198</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1609568.621922536</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1886248.790789394</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1726371.46859938</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1871853.050617819</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1818090.153582486</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1602468.768711706</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1827082.982356512</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1053756.726577391</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1669765.307898045</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1359863.69345321</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1502469.626028144</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1284344.159763748</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1382263.589483782</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1316281.380664895</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1063655.218104989</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1004294.131779696</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1282629.585011351</v>
-      </c>
-      <c r="L54" t="n">
-        <v>743797.1139182686</v>
-      </c>
-      <c r="M54" t="n">
-        <v>688931.3264187489</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3512938.811833579</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3339182.497504924</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4348542.625098245</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4302448.1119979</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3756019.559327365</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3448410.421185762</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4369967.715441419</v>
-      </c>
-      <c r="I55" t="n">
-        <v>4731169.81093541</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4110472.983195772</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4633637.926946308</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4078554.988659207</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3245066.649660738</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3514625.115321395</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4000865.544159716</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3992869.254561192</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4049132.866772504</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4630488.282451879</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4683853.977891548</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4880981.734467902</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4778247.378420024</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5122953.132672249</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5497446.080610299</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4908934.613920976</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5607970.579071092</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>3946966.138012155</v>
-      </c>
-      <c r="C57" t="n">
-        <v>3959273.548747458</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4984885.441098618</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5149824.038226181</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5356381.087299144</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5343246.578073639</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5315684.200900232</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5859140.285603045</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4746488.931084686</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6247546.548132688</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4461773.337956898</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4808870.951126629</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4066483.553573454</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4235862.408870995</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4698465.476573379</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4795875.409872527</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4916569.247623269</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5217543.585021594</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4864179.887731222</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5250217.612286869</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4928212.93920616</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5448634.756386524</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4748707.318183203</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5434743.076170241</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3179864.052026178</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2193998.796102392</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3061634.218045956</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3596678.197356932</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2758883.48813706</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3107147.422186173</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3101220.603892918</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2922109.313418345</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3697537.465087869</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3534915.57120652</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2807149.126923722</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3722132.403894825</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>2983973.515119147</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3177297.063290078</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3620910.864923012</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3462143.130130033</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3727286.619391661</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3808332.27385233</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3972219.480316779</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4274550.547809091</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4600435.876677262</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4674720.905500374</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4338225.483622374</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4194429.646580631</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2137737.334790257</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2076964.197618861</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3168421.362068579</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3144111.979886285</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3061769.465255326</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3028223.092164984</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3088981.906765757</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3073052.777784414</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2918304.12050426</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3225733.35246376</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2743113.37569928</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3407687.044082938</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>4796122.639584408</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4867527.68920523</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5755681.496684286</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5252087.036357026</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5214519.144742798</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5502652.000941746</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6128748.591232107</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5836753.222497389</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6702578.803153576</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6152947.362270402</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6043769.318688216</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6612363.895544967</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2119317.159846383</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2445765.298585329</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2839233.614895568</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3059855.088775256</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2928446.269834348</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2711097.448501648</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3021048.611064365</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3008007.217689339</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3316123.508741615</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3017960.845963621</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2476515.770063831</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3182000.326120072</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1698474.423284779</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2040172.846842089</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2580656.156507453</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1950851.119311987</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2285632.792162597</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2137577.367753629</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2189036.718558551</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2100733.861534948</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2915097.8654959</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2618287.235981678</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1748024.905756292</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2100308.750938142</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2341802.674071901</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2372747.085958157</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2403110.544090322</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2432853.483592617</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2461909.024753047</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2490332.39442095</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2518406.685775552</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2545755.00173262</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2572652.545559019</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2598981.145416496</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2624634.206182295</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2649968.190115092</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5409150.711641409</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4981520.075037022</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5721716.185412675</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6180452.427187528</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4948398.376466395</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4800567.666526951</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5456133.018096052</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4459017.924594367</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5137923.390305511</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6459240.486352998</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4529499.521460714</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5472889.229803362</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>821614.8330803458</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1027937.107796775</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1229363.799012016</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1176828.859895188</v>
-      </c>
-      <c r="F67" t="n">
-        <v>955084.3844257714</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1013118.727567717</v>
-      </c>
-      <c r="H67" t="n">
-        <v>980527.840731847</v>
-      </c>
-      <c r="I67" t="n">
-        <v>997433.0503913992</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1338476.898937539</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1131070.488273594</v>
-      </c>
-      <c r="L67" t="n">
-        <v>791258.2171308869</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1105409.160642691</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3006928.23284999</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3060520.145896064</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3113030.684492308</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3164500.853102719</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3214841.066525158</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3264326.072826794</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3312570.993880501</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3360035.819014196</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3406477.084766295</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3451990.464522511</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3496606.047144801</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3540405.387191442</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2795748.138981468</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2813331.682279065</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2830396.094615752</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2847280.778140233</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2863559.35157641</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2879686.125320184</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2895465.252304095</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2910986.140636024</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2926209.887548882</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2941000.780610086</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2955398.929432644</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2969730.008624131</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>46012970.26954452</v>
-      </c>
-      <c r="C70" t="n">
-        <v>50642710.44312318</v>
-      </c>
-      <c r="D70" t="n">
-        <v>54872781.98965131</v>
-      </c>
-      <c r="E70" t="n">
-        <v>58824189.94574818</v>
-      </c>
-      <c r="F70" t="n">
-        <v>62390480.63933214</v>
-      </c>
-      <c r="G70" t="n">
-        <v>65704016.59577321</v>
-      </c>
-      <c r="H70" t="n">
-        <v>68700218.85037975</v>
-      </c>
-      <c r="I70" t="n">
-        <v>71508367.32812436</v>
-      </c>
-      <c r="J70" t="n">
-        <v>74009334.49541461</v>
-      </c>
-      <c r="K70" t="n">
-        <v>76397674.53345914</v>
-      </c>
-      <c r="L70" t="n">
-        <v>78289040.79759087</v>
-      </c>
-      <c r="M70" t="n">
-        <v>80522566.3582228</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>20742956.1022474</v>
-      </c>
-      <c r="C71" t="n">
-        <v>32711626.8480137</v>
-      </c>
-      <c r="D71" t="n">
-        <v>32804128.45191016</v>
-      </c>
-      <c r="E71" t="n">
-        <v>36505748.82970211</v>
-      </c>
-      <c r="F71" t="n">
-        <v>41445943.37523571</v>
-      </c>
-      <c r="G71" t="n">
-        <v>40546952.27434576</v>
-      </c>
-      <c r="H71" t="n">
-        <v>41698914.19654708</v>
-      </c>
-      <c r="I71" t="n">
-        <v>42443126.74552134</v>
-      </c>
-      <c r="J71" t="n">
-        <v>42094736.67310074</v>
-      </c>
-      <c r="K71" t="n">
-        <v>44601184.9465774</v>
-      </c>
-      <c r="L71" t="n">
-        <v>48763730.36361185</v>
-      </c>
-      <c r="M71" t="n">
-        <v>69808035.13902947</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-76350.09855286847</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1772928.743830627</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2141774.85494373</v>
-      </c>
-      <c r="E72" t="n">
-        <v>898575.1801601339</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3131901.760650864</v>
-      </c>
-      <c r="G72" t="n">
-        <v>103880.5686092968</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1090787.601371453</v>
-      </c>
-      <c r="I72" t="n">
-        <v>653737.0579247271</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1282672.030845055</v>
-      </c>
-      <c r="K72" t="n">
-        <v>464532.3302483747</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1493881.89487499</v>
-      </c>
-      <c r="M72" t="n">
-        <v>952141.3857979215</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>11767248.40683188</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12421779.49355241</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12594194.36408191</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12093590.11924105</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12414371.49115913</v>
-      </c>
-      <c r="G73" t="n">
-        <v>11962054.11324925</v>
-      </c>
-      <c r="H73" t="n">
-        <v>12272643.74743147</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12324730.12811552</v>
-      </c>
-      <c r="J73" t="n">
-        <v>12343122.03872022</v>
-      </c>
-      <c r="K73" t="n">
-        <v>12664053.65250457</v>
-      </c>
-      <c r="L73" t="n">
-        <v>12322593.51759585</v>
-      </c>
-      <c r="M73" t="n">
-        <v>13183225.66903905</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>11376986.82000231</v>
-      </c>
-      <c r="C74" t="n">
-        <v>17560196.79615926</v>
-      </c>
-      <c r="D74" t="n">
-        <v>18789289.45849442</v>
-      </c>
-      <c r="E74" t="n">
-        <v>18612233.49643184</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17490100.56397504</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18199666.9431754</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17521209.81498227</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16219489.68796732</v>
-      </c>
-      <c r="J74" t="n">
-        <v>17422395.87769388</v>
-      </c>
-      <c r="K74" t="n">
-        <v>17950587.18661607</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20387294.89952648</v>
-      </c>
-      <c r="M74" t="n">
-        <v>23267428.59189704</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>25470287.45169051</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26864425.75044566</v>
-      </c>
-      <c r="D75" t="n">
-        <v>29126700.66839658</v>
-      </c>
-      <c r="E75" t="n">
-        <v>29175633.11597577</v>
-      </c>
-      <c r="F75" t="n">
-        <v>31699944.62714405</v>
-      </c>
-      <c r="G75" t="n">
-        <v>36210073.35632208</v>
-      </c>
-      <c r="H75" t="n">
-        <v>34053358.21490037</v>
-      </c>
-      <c r="I75" t="n">
-        <v>35345419.48664548</v>
-      </c>
-      <c r="J75" t="n">
-        <v>31265191.85079731</v>
-      </c>
-      <c r="K75" t="n">
-        <v>34622873.32443097</v>
-      </c>
-      <c r="L75" t="n">
-        <v>33367483.25178139</v>
-      </c>
-      <c r="M75" t="n">
-        <v>37775637.80237083</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>20720667.80642887</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21234714.87791379</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21738375.32682397</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22231530.12499892</v>
-      </c>
-      <c r="F76" t="n">
-        <v>22714470.50533614</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23187515.06641124</v>
-      </c>
-      <c r="H76" t="n">
-        <v>23652225.15990787</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24105289.28984848</v>
-      </c>
-      <c r="J76" t="n">
-        <v>24550309.2396247</v>
-      </c>
-      <c r="K76" t="n">
-        <v>24987129.86869724</v>
-      </c>
-      <c r="L76" t="n">
-        <v>25414637.09610691</v>
-      </c>
-      <c r="M76" t="n">
-        <v>25833327.15357958</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>23107725.38629632</v>
-      </c>
-      <c r="C77" t="n">
-        <v>23961836.26454542</v>
-      </c>
-      <c r="D77" t="n">
-        <v>24797930.40206192</v>
-      </c>
-      <c r="E77" t="n">
-        <v>25617909.25085299</v>
-      </c>
-      <c r="F77" t="n">
-        <v>26421037.57741323</v>
-      </c>
-      <c r="G77" t="n">
-        <v>27209035.4284065</v>
-      </c>
-      <c r="H77" t="n">
-        <v>27979856.06493608</v>
-      </c>
-      <c r="I77" t="n">
-        <v>28735820.70468661</v>
-      </c>
-      <c r="J77" t="n">
-        <v>29477135.74123672</v>
-      </c>
-      <c r="K77" t="n">
-        <v>30204046.63163555</v>
-      </c>
-      <c r="L77" t="n">
-        <v>30914700.17960984</v>
-      </c>
-      <c r="M77" t="n">
-        <v>31612128.5662942</v>
+        <v>3274720.063390928</v>
       </c>
     </row>
   </sheetData>
